--- a/src/test/resources/002 One-team-one-mhproject-with-overflow.xlsx
+++ b/src/test/resources/002 One-team-one-mhproject-with-overflow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -10,13 +15,14 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Output" r:id="rId7" sheetId="4"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Team1</t>
   </si>
@@ -70,12 +76,19 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>Monat</t>
+  </si>
+  <si>
+    <t>Projekte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -117,6 +131,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -391,16 +408,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,11 +947,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="false"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,12 +963,215 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="11.0" collapsed="false"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="n" s="3">
+        <v>42461.0</v>
+      </c>
+      <c r="D1" t="n" s="3">
+        <v>42491.0</v>
+      </c>
+      <c r="E1" t="n" s="3">
+        <v>42522.0</v>
+      </c>
+      <c r="F1" t="n" s="3">
+        <v>42552.0</v>
+      </c>
+      <c r="G1" t="n" s="3">
+        <v>42583.0</v>
+      </c>
+      <c r="H1" t="n" s="3">
+        <v>42614.0</v>
+      </c>
+      <c r="I1" t="n" s="3">
+        <v>42644.0</v>
+      </c>
+      <c r="J1" t="n" s="3">
+        <v>42675.0</v>
+      </c>
+      <c r="K1" t="n" s="3">
+        <v>42705.0</v>
+      </c>
+      <c r="L1" t="n" s="3">
+        <v>42736.0</v>
+      </c>
+      <c r="M1" t="n" s="3">
+        <v>42767.0</v>
+      </c>
+      <c r="N1" t="n" s="3">
+        <v>42795.0</v>
+      </c>
+      <c r="O1" t="n" s="3">
+        <v>42826.0</v>
+      </c>
+      <c r="P1" t="n" s="3">
+        <v>42856.0</v>
+      </c>
+      <c r="Q1" t="n" s="3">
+        <v>42887.0</v>
+      </c>
+      <c r="R1" t="n" s="3">
+        <v>42917.0</v>
+      </c>
+      <c r="S1" t="n" s="3">
+        <v>42948.0</v>
+      </c>
+      <c r="T1" t="n" s="3">
+        <v>42979.0</v>
+      </c>
+      <c r="U1" t="n" s="3">
+        <v>43009.0</v>
+      </c>
+      <c r="V1" t="n" s="3">
+        <v>43040.0</v>
+      </c>
+      <c r="W1" t="n" s="3">
+        <v>43070.0</v>
+      </c>
+      <c r="X1" t="n" s="3">
+        <v>43101.0</v>
+      </c>
+      <c r="Y1" t="n" s="3">
+        <v>43132.0</v>
+      </c>
+      <c r="Z1" t="n" s="3">
+        <v>43160.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>42614.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>